--- a/ProjectFiles/HECO/PyDSS Settings/HP-Legacy/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/HECO/PyDSS Settings/HP-Legacy/pyControllerList/PV Controller.xlsx
@@ -10667,7 +10667,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="4">
         <v>0.95</v>
